--- a/data/AutomationTestPlan.xlsx
+++ b/data/AutomationTestPlan.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="1" r:id="rId1"/>
     <sheet name="TSu1" sheetId="4" r:id="rId2"/>
     <sheet name="TSu2" sheetId="5" r:id="rId3"/>
     <sheet name="TSu3" sheetId="6" r:id="rId4"/>
+    <sheet name="TSu4" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
-  <si>
-    <t>Precondition:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="118">
   <si>
     <t>Navigate to:</t>
   </si>
@@ -69,27 +67,12 @@
     <t>Sekulic</t>
   </si>
   <si>
-    <t>Insert email into "Email address" input field in the bottom left corner</t>
-  </si>
-  <si>
     <t>Drage Spasic</t>
   </si>
   <si>
     <t>4.</t>
   </si>
   <si>
-    <t>Insert first name into "First name" input field</t>
-  </si>
-  <si>
-    <t>Insert last name into "Last name" input field</t>
-  </si>
-  <si>
-    <t>Insert address into "Address" input field</t>
-  </si>
-  <si>
-    <t>Insert city into "City" input field</t>
-  </si>
-  <si>
     <t>Novi Sad</t>
   </si>
   <si>
@@ -102,21 +85,12 @@
     <t>6.</t>
   </si>
   <si>
-    <t>Insert postal code into "ZIP/Postal code" input field</t>
-  </si>
-  <si>
     <t>Select state from drop down menu</t>
   </si>
   <si>
     <t>7.</t>
   </si>
   <si>
-    <t>Insert mobile phone into "Mobile phone" input field</t>
-  </si>
-  <si>
-    <t>Insert into "Assign an address alias for future reference" input field</t>
-  </si>
-  <si>
     <t>D. Spasic</t>
   </si>
   <si>
@@ -138,15 +112,9 @@
     <t>12.</t>
   </si>
   <si>
-    <t>Insert password into "Password" input field</t>
-  </si>
-  <si>
     <t>kalininamama</t>
   </si>
   <si>
-    <t>Verify that user can create account with valid email and register by filling all the required fields</t>
-  </si>
-  <si>
     <t>Navigation to "My account" page.</t>
   </si>
   <si>
@@ -156,9 +124,6 @@
     <t>An account using this email address has already been registered. Please enter a valid password or request a new one.</t>
   </si>
   <si>
-    <t>Insert email that belongs to registered account into "Email address" input field in the bottom left corner</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -186,78 +151,45 @@
     <t>Test case name:</t>
   </si>
   <si>
-    <t>ID1</t>
-  </si>
-  <si>
-    <t>ID2</t>
-  </si>
-  <si>
     <t>Sign in</t>
   </si>
   <si>
     <t>Verify that user can't create account with invalid email address</t>
   </si>
   <si>
-    <t>Verify that user can create account with valid email address and register by filling all the required fields</t>
-  </si>
-  <si>
-    <t>ID3</t>
-  </si>
-  <si>
-    <t>Insert invalid email address into "Email address" input field in the bottom left corner</t>
-  </si>
-  <si>
     <t>ninkovic@y</t>
   </si>
   <si>
     <t>Invalid email address.</t>
   </si>
   <si>
-    <t>Alert:</t>
-  </si>
-  <si>
     <t>TSu2</t>
   </si>
   <si>
     <t>Verify that user can sign in with valid credentials</t>
   </si>
   <si>
-    <t>Input valid email address into "Email address" input field in the bottom right coner</t>
-  </si>
-  <si>
     <t>ninkovicdragana@yahoo.com</t>
   </si>
   <si>
-    <t>Input valid password into "Password" field</t>
-  </si>
-  <si>
     <t>Click on "Sign in" button</t>
   </si>
   <si>
     <t>Verify that user can't sign in with invalid email address</t>
   </si>
   <si>
-    <t>Input invalid email address into "Email address" input field in the bottom right coner</t>
-  </si>
-  <si>
     <t>ninkovic@yah</t>
   </si>
   <si>
     <t>Verify that user can't sign in with invalid password</t>
   </si>
   <si>
-    <t>Input invalid password into "Password" field</t>
-  </si>
-  <si>
     <t>kalina</t>
   </si>
   <si>
     <t>Authentication failed.</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>Verify that only one radio button can be checked at the same time</t>
   </si>
   <si>
@@ -277,6 +209,174 @@
   </si>
   <si>
     <t>ninkovicdragana+12@yahoo.com</t>
+  </si>
+  <si>
+    <t>Personal Information form</t>
+  </si>
+  <si>
+    <t>Check value in the "First name" field</t>
+  </si>
+  <si>
+    <t>Check value in the "Last name" field</t>
+  </si>
+  <si>
+    <t>Check value in the "Email" field</t>
+  </si>
+  <si>
+    <t>Confirm new password into "Confirmation" input field</t>
+  </si>
+  <si>
+    <t>Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>Click on the "Sign out" button</t>
+  </si>
+  <si>
+    <t>Verify that user can create account with valid email address and register by filling all the mandatory fields</t>
+  </si>
+  <si>
+    <t>Verify that user can create account with valid email and register by filling all the mandatory fields</t>
+  </si>
+  <si>
+    <t>Pre-condition:</t>
+  </si>
+  <si>
+    <t>Alert message:</t>
+  </si>
+  <si>
+    <t>User isn't sign in. Expected alert message is:</t>
+  </si>
+  <si>
+    <t>Verify that user can change the password and then sign in with the new password</t>
+  </si>
+  <si>
+    <t>Enter email into "Email address" input field in the bottom left corner</t>
+  </si>
+  <si>
+    <t>Enter first name into "First name" input field</t>
+  </si>
+  <si>
+    <t>Enter last name into "Last name" input field</t>
+  </si>
+  <si>
+    <t>Enter password into "Password" input field</t>
+  </si>
+  <si>
+    <t>Enter address into "Address" input field</t>
+  </si>
+  <si>
+    <t>Enter city into "City" input field</t>
+  </si>
+  <si>
+    <t>Enter postal code into "ZIP/Postal code" input field</t>
+  </si>
+  <si>
+    <t>Enter mobile phone into "Mobile phone" input field</t>
+  </si>
+  <si>
+    <t>Enter address alias into "Assign an address alias for future reference" input field</t>
+  </si>
+  <si>
+    <t>Enter email that belongs to registered account into "Email address" input field in the bottom left corner</t>
+  </si>
+  <si>
+    <t>Enter invalid email address into "Email address" input field in the bottom left corner</t>
+  </si>
+  <si>
+    <t>Enter valid email address into "Email address" input field in the bottom right coner</t>
+  </si>
+  <si>
+    <t>Enter valid password into "Password" field</t>
+  </si>
+  <si>
+    <t>Enter invalid email address into "Email address" input field in the bottom right coner</t>
+  </si>
+  <si>
+    <t>Enter invalid password into "Password" field</t>
+  </si>
+  <si>
+    <t>Enter valid password into "Current password" input field</t>
+  </si>
+  <si>
+    <t>Enter new password into "New password" input field</t>
+  </si>
+  <si>
+    <t>Enter new password into "Password" field</t>
+  </si>
+  <si>
+    <t>Test case ID</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Verify that user can't sign in if "Email" and "Password" input fields are left blank</t>
+  </si>
+  <si>
+    <t>Verify that fields "First name", "Last name" and "Email" are correctly autofilled in "My personal information" section, after Signing in</t>
+  </si>
+  <si>
+    <t>Verify that fields "First name", "Last name" and "Email" are correctly autofilled in "My personal information" section,  after Signing in</t>
+  </si>
+  <si>
+    <t>Leave the "Email" input field blank</t>
+  </si>
+  <si>
+    <t>Leave the "Password" input field blank</t>
+  </si>
+  <si>
+    <t>An email address required.</t>
+  </si>
+  <si>
+    <t>Search box</t>
+  </si>
+  <si>
+    <t>Verify that there is no result if "Search" box is blank and "Search" button is clicked</t>
+  </si>
+  <si>
+    <t>TSu4</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Leave "Search" field blank</t>
+  </si>
+  <si>
+    <t>Click on "Search" button</t>
+  </si>
+  <si>
+    <t>0 results have been found.</t>
+  </si>
+  <si>
+    <t>There isn't any found product. Notification is displayed, with text:</t>
   </si>
 </sst>
 </file>
@@ -365,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -414,16 +514,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,158 +818,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="84.6640625" customWidth="1"/>
+    <col min="2" max="2" width="88" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -868,152 +1069,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3">
         <v>21000</v>
@@ -1021,10 +1222,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D18" s="5">
         <v>381642636375</v>
@@ -1032,72 +1233,72 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D31" t="str">
         <f>D9</f>
@@ -1106,10 +1307,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,67 +1318,67 @@
     </row>
     <row r="34" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
         <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,13 +1386,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1205,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,353 +1422,831 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>65</v>
+        <v>97</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="D20" t="s">
         <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>88</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>10</v>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
+      <c r="D26" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>76</v>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D20" r:id="rId2"/>
-    <hyperlink ref="D32" r:id="rId3"/>
+    <hyperlink ref="D22" r:id="rId1"/>
+    <hyperlink ref="D35" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
     <col min="3" max="3" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="str">
+        <f>'TSu1'!D11</f>
+        <v>Dragana</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="str">
+        <f>'TSu1'!D12</f>
+        <v>Sekulic</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="str">
+        <f>'TSu3'!D26</f>
+        <v>ninkovicdragana@yahoo.com</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="str">
+        <f>D41</f>
+        <v>kalininamama</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D26" r:id="rId2"/>
+    <hyperlink ref="D40" r:id="rId3"/>
+    <hyperlink ref="D49" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>17</v>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
+        <v>117</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/AutomationTestPlan.xlsx
+++ b/data/AutomationTestPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="TSu2" sheetId="5" r:id="rId3"/>
     <sheet name="TSu3" sheetId="6" r:id="rId4"/>
     <sheet name="TSu4" sheetId="7" r:id="rId5"/>
+    <sheet name="TSu5" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="153">
   <si>
     <t>Navigate to:</t>
   </si>
@@ -208,9 +209,6 @@
     <t>Click on "My personal information" tab</t>
   </si>
   <si>
-    <t>ninkovicdragana+12@yahoo.com</t>
-  </si>
-  <si>
     <t>Personal Information form</t>
   </si>
   <si>
@@ -377,6 +375,114 @@
   </si>
   <si>
     <t>There isn't any found product. Notification is displayed, with text:</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Verify that when user enter one word in "Search" box it suggests results (in dropdown list) that matches typed keyword</t>
+  </si>
+  <si>
+    <t>Check if all suggested results in dropdown list contain that word</t>
+  </si>
+  <si>
+    <t>All suggested results in dropdown list contain typed word.</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>Verify that user can sign out from his account</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>1. Navigate to:</t>
+  </si>
+  <si>
+    <t>Click on "Sign out" button in the top right corner</t>
+  </si>
+  <si>
+    <t>User is signed out. In the top right corner is displayed "Sign in" button.</t>
+  </si>
+  <si>
+    <t>ninkovicdragana+a@yahoo.com</t>
+  </si>
+  <si>
+    <t>My account</t>
+  </si>
+  <si>
+    <t>Verify that user can update address in "My account" section</t>
+  </si>
+  <si>
+    <t>TSu5</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>2. User is signed in to his account. Execute test case with ID:</t>
+  </si>
+  <si>
+    <t>Click on "My addresses tab"</t>
+  </si>
+  <si>
+    <t>Click on "Update" button</t>
+  </si>
+  <si>
+    <t>Ravanicka</t>
+  </si>
+  <si>
+    <t>Becej</t>
+  </si>
+  <si>
+    <t>Select new state from "State" drop down menu</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Enter one word into "Search" field box</t>
+  </si>
+  <si>
+    <t>Delete current address from the "Address" input field</t>
+  </si>
+  <si>
+    <t>Enter new address into "Address" input field</t>
+  </si>
+  <si>
+    <t>Delete current city from the "City" input field</t>
+  </si>
+  <si>
+    <t>Enter new city into "City" input field</t>
+  </si>
+  <si>
+    <t>Delete current postal code from the "ZIP/Postal code" input field</t>
+  </si>
+  <si>
+    <t>Enter new postal code in the "ZIP/Postal code" input field</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Click on "Add a new address" button</t>
+  </si>
+  <si>
+    <t>Bulevar oslobodjenja</t>
+  </si>
+  <si>
+    <t>Verify that user can add new address by filling all required fields</t>
+  </si>
+  <si>
+    <t>B. oslobodjenja</t>
+  </si>
+  <si>
+    <t>Updated address data is displayed in "My addresses" section.</t>
+  </si>
+  <si>
+    <t>New address is created and address data is displayed in "My addresses" section.</t>
   </si>
 </sst>
 </file>
@@ -465,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -532,11 +638,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -818,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,31 +961,31 @@
         <v>35</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -876,14 +993,14 @@
         <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -891,7 +1008,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -902,7 +1019,7 @@
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
@@ -912,14 +1029,14 @@
         <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" t="s">
         <v>50</v>
       </c>
@@ -927,14 +1044,14 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -942,122 +1059,165 @@
         <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" t="s">
-        <v>74</v>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="28"/>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,15 +1251,15 @@
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1129,10 +1289,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1148,7 +1308,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1159,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1170,7 +1330,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -1181,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1192,7 +1352,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1214,7 +1374,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3">
         <v>21000</v>
@@ -1225,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="5">
         <v>381642636375</v>
@@ -1236,7 +1396,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1260,7 +1420,7 @@
     </row>
     <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>39</v>
@@ -1268,7 +1428,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -1298,11 +1458,11 @@
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" t="str">
         <f>D9</f>
-        <v>ninkovicdragana+12@yahoo.com</v>
+        <v>ninkovicdragana+a@yahoo.com</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>32</v>
@@ -1329,7 +1489,7 @@
     </row>
     <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>43</v>
@@ -1337,7 +1497,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1367,7 +1527,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>44</v>
@@ -1389,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>45</v>
@@ -1406,17 +1566,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1430,7 +1590,7 @@
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>47</v>
@@ -1438,7 +1598,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1468,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>48</v>
@@ -1479,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1504,17 +1664,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -1544,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>51</v>
@@ -1555,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -1574,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>45</v>
@@ -1582,7 +1742,7 @@
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>52</v>
@@ -1594,7 +1754,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -1624,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>48</v>
@@ -1635,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
@@ -1657,7 +1817,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
@@ -1666,17 +1826,17 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -1706,19 +1866,19 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="17"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>15</v>
       </c>
@@ -1726,18 +1886,78 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="str">
+        <f>'Test plan'!D6</f>
+        <v>TC4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1755,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B16"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,7 +2006,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1816,7 +2036,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>48</v>
@@ -1827,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1881,12 +2101,12 @@
         <v>102</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -1920,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>48</v>
@@ -1931,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1950,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" t="str">
         <f>'TSu1'!D11</f>
@@ -1962,7 +2182,7 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" t="str">
         <f>'TSu1'!D12</f>
@@ -1974,7 +2194,7 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" t="str">
         <f>'TSu3'!D26</f>
@@ -1986,10 +2206,10 @@
     </row>
     <row r="33" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2002,7 +2222,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -2032,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>48</v>
@@ -2043,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2070,7 +2290,7 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" t="str">
         <f>D41</f>
@@ -2082,7 +2302,7 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
         <v>53</v>
@@ -2093,7 +2313,7 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
         <v>53</v>
@@ -2104,7 +2324,7 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2112,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -2120,7 +2340,7 @@
         <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>48</v>
@@ -2131,7 +2351,7 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
         <v>53</v>
@@ -2142,7 +2362,7 @@
         <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -2167,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2191,15 +2411,15 @@
     </row>
     <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -2221,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2229,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2240,10 +2460,386 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="str">
+        <f>'Test plan'!D6</f>
+        <v>TC4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="31">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27">
+        <f>'Test plan'!D26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="31">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="31">
+        <v>222555</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/AutomationTestPlan.xlsx
+++ b/data/AutomationTestPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="TSu3" sheetId="6" r:id="rId4"/>
     <sheet name="TSu4" sheetId="7" r:id="rId5"/>
     <sheet name="TSu5" sheetId="8" r:id="rId6"/>
+    <sheet name="TSu6" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="188">
   <si>
     <t>Navigate to:</t>
   </si>
@@ -434,15 +435,6 @@
     <t>Ravanicka</t>
   </si>
   <si>
-    <t>Becej</t>
-  </si>
-  <si>
-    <t>Select new state from "State" drop down menu</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Enter one word into "Search" field box</t>
   </si>
   <si>
@@ -452,37 +444,151 @@
     <t>Enter new address into "Address" input field</t>
   </si>
   <si>
-    <t>Delete current city from the "City" input field</t>
-  </si>
-  <si>
-    <t>Enter new city into "City" input field</t>
-  </si>
-  <si>
-    <t>Delete current postal code from the "ZIP/Postal code" input field</t>
-  </si>
-  <si>
-    <t>Enter new postal code in the "ZIP/Postal code" input field</t>
-  </si>
-  <si>
     <t>TC15</t>
   </si>
   <si>
     <t>Click on "Add a new address" button</t>
   </si>
   <si>
-    <t>Bulevar oslobodjenja</t>
-  </si>
-  <si>
     <t>Verify that user can add new address by filling all required fields</t>
   </si>
   <si>
-    <t>B. oslobodjenja</t>
-  </si>
-  <si>
     <t>Updated address data is displayed in "My addresses" section.</t>
   </si>
   <si>
     <t>New address is created and address data is displayed in "My addresses" section.</t>
+  </si>
+  <si>
+    <t>333666</t>
+  </si>
+  <si>
+    <t>Verify that user can delete address</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Click on "OK" in the alert pop-up at the top right corner</t>
+  </si>
+  <si>
+    <t>Address is deleted and address data isn't displayed in "My addresses" section.</t>
+  </si>
+  <si>
+    <t>Resavska</t>
+  </si>
+  <si>
+    <t>Verify that user can edit personal information</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Click on "Social title" radio button</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Ninkovic</t>
+  </si>
+  <si>
+    <t>Select day of birth from drop down menu</t>
+  </si>
+  <si>
+    <t>Select month of birth from drop down menu</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Select year of birth from drop down menu</t>
+  </si>
+  <si>
+    <t>Enter current password into "Current password" field</t>
+  </si>
+  <si>
+    <t>Enter new first name into "First name" input field or skip this field if the first name is the same</t>
+  </si>
+  <si>
+    <t>Enter new last name into "Last name" input field or skip this field if the last name is the same</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>Edited first and last name are displayed in top right corner and alert message is written:</t>
+  </si>
+  <si>
+    <t>Your personal information has been successfully updated.</t>
+  </si>
+  <si>
+    <t>Choose address which you want to delete, by address alias</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Click on "Delete" address button bellow chosen address alias</t>
+  </si>
+  <si>
+    <t>Choose address which you want to update, by address alias</t>
+  </si>
+  <si>
+    <t>V. Stajica</t>
+  </si>
+  <si>
+    <t>Enter new city into "City" input field or skip this field if city is the same</t>
+  </si>
+  <si>
+    <t>Select new state from "State" drop down menu or skip this step if state is the same</t>
+  </si>
+  <si>
+    <t>Enter new postal code in the "ZIP/Postal code" input field or skip this field if postal code is the same</t>
+  </si>
+  <si>
+    <t>2. User is signed in to his account. Execute test steps from the test case with ID:</t>
+  </si>
+  <si>
+    <t>Enter new address alias into "Please assign an address title for future reference" input fieldor skip this field if alias is the same</t>
+  </si>
+  <si>
+    <t>V.S.</t>
+  </si>
+  <si>
+    <t>Verify that user can't edit personal information if he enters incorrect password in the "Current password" field</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>Enter incorrect password into "Current password" field</t>
+  </si>
+  <si>
+    <t>Changes aren't saved. Alert message is displayed.</t>
+  </si>
+  <si>
+    <t>My wishlists</t>
+  </si>
+  <si>
+    <t>Verify that user can create wishlist and add product to it</t>
+  </si>
+  <si>
+    <t>TSu6</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>Click on "Mywishlists" tab</t>
+  </si>
+  <si>
+    <t>Enter wishlist name in the "Name" input field</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>New wishlist is created as a table and it's name is displayed.</t>
   </si>
 </sst>
 </file>
@@ -571,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -654,6 +760,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -935,16 +1054,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -968,7 +1087,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -985,7 +1104,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="35"/>
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -1000,7 +1119,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="35"/>
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -1019,7 +1138,7 @@
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
@@ -1036,7 +1155,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="35"/>
       <c r="B7" t="s">
         <v>50</v>
       </c>
@@ -1051,7 +1170,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="35"/>
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -1066,7 +1185,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="35"/>
       <c r="B9" t="s">
         <v>103</v>
       </c>
@@ -1096,7 +1215,7 @@
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
@@ -1113,7 +1232,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="1" t="s">
         <v>104</v>
       </c>
@@ -1128,7 +1247,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="36"/>
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -1143,76 +1262,130 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="28"/>
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+    <row r="19" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="E23" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1230,7 +1403,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C19"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -1949,7 +2122,7 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
@@ -1973,18 +2146,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B16"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2205,10 +2378,10 @@
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="19" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2335,7 +2508,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2519,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
@@ -2357,7 +2530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
@@ -2365,12 +2538,289 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" t="str">
+        <f>'Test plan'!D6</f>
+        <v>TC4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" t="str">
+        <f>'Test plan'!D6</f>
+        <v>TC4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2498,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
         <v>121</v>
@@ -2531,17 +2981,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
-    <col min="3" max="3" width="66.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2574,7 +3024,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D6" t="str">
         <f>'Test plan'!D6</f>
@@ -2582,110 +3032,106 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="31">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="31">
-        <v>24000</v>
+      <c r="C18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -2700,15 +3146,15 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2724,11 +3170,11 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27">
-        <f>'Test plan'!D26</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="D27" t="str">
+        <f>'Test plan'!D6</f>
+        <v>TC4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2754,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2765,10 +3211,10 @@
         <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
@@ -2779,7 +3225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
@@ -2787,10 +3233,10 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
@@ -2801,18 +3247,18 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="31">
-        <v>222555</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
@@ -2820,10 +3266,10 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
@@ -2831,15 +3277,203 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="str">
+        <f>'Test plan'!D6</f>
+        <v>TC4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="str">
+        <f>'Test plan'!D6</f>
+        <v>TC4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/AutomationTestPlan.xlsx
+++ b/data/AutomationTestPlan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="205">
   <si>
     <t>Navigate to:</t>
   </si>
@@ -570,25 +570,76 @@
     <t>My wishlists</t>
   </si>
   <si>
-    <t>Verify that user can create wishlist and add product to it</t>
-  </si>
-  <si>
     <t>TSu6</t>
   </si>
   <si>
     <t>TC19</t>
   </si>
   <si>
-    <t>Click on "Mywishlists" tab</t>
-  </si>
-  <si>
     <t>Enter wishlist name in the "Name" input field</t>
   </si>
   <si>
     <t>Dresses</t>
   </si>
   <si>
-    <t>New wishlist is created as a table and it's name is displayed.</t>
+    <t>New wishlist is created as a row in the table and it's name is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that user can add one product to wishlist</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>Click on "Home" button</t>
+  </si>
+  <si>
+    <t>Click on the product that you want to add to wish list</t>
+  </si>
+  <si>
+    <t>Printed Chiffon Dress</t>
+  </si>
+  <si>
+    <t>Click on "Add to wishlist" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the button with your name and surname in the top right corner </t>
+  </si>
+  <si>
+    <t>Click on "My wishlists" tab</t>
+  </si>
+  <si>
+    <t>Product is visible in the bottom of the page.</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Verify that user can create wishlist</t>
+  </si>
+  <si>
+    <t>Verify that user can delete wishlist</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Choose name of the wishlist that you want to delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "x" button at the end of the table row </t>
+  </si>
+  <si>
+    <t>Click on "OK" at the alert window that pops up at the top of the screen</t>
+  </si>
+  <si>
+    <t>Wishlist is delete and isn't visible in the table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the name of wishlist in the wish list table </t>
+  </si>
+  <si>
+    <t>3. Wishlist is created. Execute test steps from the test case with ID:</t>
   </si>
 </sst>
 </file>
@@ -650,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +711,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -772,6 +829,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1054,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1255,9 @@
       <c r="D9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
@@ -1208,7 +1270,9 @@
       <c r="D10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="9"/>
@@ -1287,13 +1351,16 @@
       <c r="D16" s="9" t="s">
         <v>177</v>
       </c>
+      <c r="E16" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="35" t="s">
         <v>109</v>
       </c>
       <c r="B18" t="s">
@@ -1310,6 +1377,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
       <c r="B19" s="18" t="s">
         <v>118</v>
       </c>
@@ -1318,6 +1386,9 @@
       </c>
       <c r="D19" s="9" t="s">
         <v>123</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1325,7 +1396,7 @@
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="35" t="s">
         <v>128</v>
       </c>
       <c r="B21" t="s">
@@ -1342,6 +1413,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
       <c r="B22" t="s">
         <v>141</v>
       </c>
@@ -1356,6 +1428,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
       <c r="B23" t="s">
         <v>145</v>
       </c>
@@ -1374,24 +1447,57 @@
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="35" t="s">
         <v>180</v>
       </c>
       <c r="B25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>183</v>
+      <c r="E25" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3377,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3401,10 +3507,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3440,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3448,10 +3554,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3470,13 +3576,213 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B15" s="29" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" t="str">
+        <f>'Test plan'!D6</f>
+        <v>TC4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" t="str">
+        <f>'Test plan'!D6</f>
+        <v>TC4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>